--- a/Implementation/nights_spent_by_non_residents.xlsx
+++ b/Implementation/nights_spent_by_non_residents.xlsx
@@ -1339,7 +1339,7 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 05/06/2021 11:25:12 from [ESTAT]</t>
+          <t>Data extracted on 12/06/2021 19:35:09 from [ESTAT]</t>
         </is>
       </c>
     </row>
